--- a/cad/rough stuff/rough dimensions calculations.xlsx
+++ b/cad/rough stuff/rough dimensions calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\cad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\cad\rough stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECD859-6C70-4E6C-A4E4-8131F101E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833164C0-33BA-4C4B-AE77-40EDD0ABEA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
   <si>
     <t>BLADE:</t>
   </si>
@@ -384,6 +384,27 @@
   <si>
     <t>Shawn Wallace</t>
   </si>
+  <si>
+    <t>CADed Blade:</t>
+  </si>
+  <si>
+    <t>18 inchs</t>
+  </si>
+  <si>
+    <t>(needed to order the plastic)</t>
+  </si>
+  <si>
+    <t>2 inches</t>
+  </si>
+  <si>
+    <t>Center Layer</t>
+  </si>
+  <si>
+    <t>the 2 outer layers</t>
+  </si>
+  <si>
+    <t>0.125 inches</t>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +416,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -466,6 +487,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -500,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,10 +566,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,10 +901,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1024,14 +1065,14 @@
       <c r="B7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1052,7 +1093,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>18</v>
@@ -1094,35 +1135,90 @@
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="38" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1148,7 +1244,7 @@
     <col min="13" max="13" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>

--- a/cad/rough stuff/rough dimensions calculations.xlsx
+++ b/cad/rough stuff/rough dimensions calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\cad\rough stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88258DE1-1D45-4FB7-8BD7-249466B3959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35925AB0-C0DA-4A84-B412-366B1C89F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>BLADE:</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>17.75 inches</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>2.13mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>one led piece</t>
+  </si>
+  <si>
+    <t>6.9mm</t>
+  </si>
+  <si>
+    <t>1.92mm</t>
+  </si>
+  <si>
+    <t>between leds</t>
   </si>
 </sst>
 </file>
@@ -194,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,6 +241,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -230,9 +256,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +582,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -715,14 +743,14 @@
       <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,11 +813,11 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -799,11 +827,11 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -813,10 +841,10 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,16 +854,16 @@
       <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -857,6 +885,39 @@
       </c>
       <c r="G16" s="13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
